--- a/resources/textosFestes.xlsx
+++ b/resources/textosFestes.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="26" uniqueCount="25">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="34" uniqueCount="33">
   <si>
     <t xml:space="preserve">Dia</t>
   </si>
@@ -47,6 +47,7 @@
         <color rgb="FF00000A"/>
         <rFont val="TimesNewRomanPSMT"/>
         <family val="1"/>
+        <charset val="1"/>
       </rPr>
       <t xml:space="preserve">Cercavila </t>
     </r>
@@ -56,6 +57,7 @@
         <color rgb="FF00000A"/>
         <rFont val="TimesNewRomanPSMT"/>
         <family val="1"/>
+        <charset val="1"/>
       </rPr>
       <t xml:space="preserve">amb la gran batucada KALEMBA PERCUSSIÓ.
 Recorrerem els carrers de Pòrtol per donar la benvinguda a les festes. Vos esperam a tots: nins i nines, pares i mares, si és possible, amb banyadors, disfressats i amb pistoles d'aigua per refrescar-nos. Vos animam que, en passar, des de ca vostra ens tireu globus o poals d'aigua…</t>
@@ -72,6 +74,7 @@
         <color rgb="FF00000A"/>
         <rFont val="TimesNewRomanPSMT"/>
         <family val="1"/>
+        <charset val="1"/>
       </rPr>
       <t xml:space="preserve">Jocs d’aigua </t>
     </r>
@@ -81,6 +84,7 @@
         <color rgb="FF00000A"/>
         <rFont val="TimesNewRomanPSMT"/>
         <family val="1"/>
+        <charset val="1"/>
       </rPr>
       <t xml:space="preserve">(menors de 15 anys) a la Piscina Municipal de Son Caulelles. Coorganitza la: Vicepresidència de Cultura, Patrimoni i Esports.</t>
     </r>
@@ -99,6 +103,7 @@
         <color rgb="FF00000A"/>
         <rFont val="TimesNewRomanPSMT"/>
         <family val="1"/>
+        <charset val="1"/>
       </rPr>
       <t xml:space="preserve">Gimcana </t>
     </r>
@@ -108,6 +113,7 @@
         <color rgb="FF00000A"/>
         <rFont val="TimesNewRomanPSMT"/>
         <family val="1"/>
+        <charset val="1"/>
       </rPr>
       <t xml:space="preserve">organitzada per AEG Soca-Arrel. Punt de partida a la Plaça de Ca’n Flor. Inscripcions de 9 a 12 de Juliol a </t>
     </r>
@@ -117,6 +123,7 @@
         <color rgb="FF0B4CB4"/>
         <rFont val="TimesNewRomanPSMT"/>
         <family val="1"/>
+        <charset val="1"/>
       </rPr>
       <t xml:space="preserve">festerosportol@gmail.com </t>
     </r>
@@ -126,6 +133,7 @@
         <color rgb="FF00000A"/>
         <rFont val="TimesNewRomanPSMT"/>
         <family val="1"/>
+        <charset val="1"/>
       </rPr>
       <t xml:space="preserve">o presencialment a l’Espai Jove de Pòrtol. Necessitareu un nom de grup, telèfon de contacte, nom i edat de cada participant (edat mínima 14 anys i els menors han de presentar autorització signada pel tutor/a legal) Els grups han de ser d’entre 5 i 10 participants.</t>
     </r>
@@ -144,6 +152,7 @@
         <color rgb="FF00000A"/>
         <rFont val="TimesNewRomanPSMT"/>
         <family val="1"/>
+        <charset val="1"/>
       </rPr>
       <t xml:space="preserve">Nit de l’Art </t>
     </r>
@@ -153,6 +162,7 @@
         <color rgb="FF00000A"/>
         <rFont val="TimesNewRomanPSMT"/>
         <family val="1"/>
+        <charset val="1"/>
       </rPr>
       <t xml:space="preserve">a la Plaça de Can Flor. Exposicions de diferents temàtiques del món de la cultura.</t>
     </r>
@@ -165,6 +175,7 @@
         <color rgb="FF00000A"/>
         <rFont val="TimesNewRomanPSMT"/>
         <family val="1"/>
+        <charset val="1"/>
       </rPr>
       <t xml:space="preserve">Mercadet Nocturn </t>
     </r>
@@ -174,6 +185,7 @@
         <color rgb="FF00000A"/>
         <rFont val="TimesNewRomanPSMT"/>
         <family val="1"/>
+        <charset val="1"/>
       </rPr>
       <t xml:space="preserve">a la Plaça de Can Flor.</t>
     </r>
@@ -192,6 +204,7 @@
         <color rgb="FF00000A"/>
         <rFont val="TimesNewRomanPSMT"/>
         <family val="1"/>
+        <charset val="1"/>
       </rPr>
       <t xml:space="preserve">Sopar a la fresca </t>
     </r>
@@ -201,6 +214,7 @@
         <color rgb="FF00000A"/>
         <rFont val="TimesNewRomanPSMT"/>
         <family val="1"/>
+        <charset val="1"/>
       </rPr>
       <t xml:space="preserve">a la Plaça de Can Flor. Hi trobareu taula parada: aigua, pa i olives. La resta va a compte vostre. Reserva de taula: de dia 9 a dia 12, al Carrer Mare de Déu del Carme, 1 amb horari de 10 a 12 h i de 18 a 20,30 h a 1 € per persona.
 Durant els dies d'inscripcions i durant el sopar passarem per les taules oferint els tiquets de bonorifa (1 €) que es realitzarà el mateix vespre.</t>
@@ -216,46 +230,20 @@
     <t xml:space="preserve">10.00 h</t>
   </si>
   <si>
-    <r>
-      <rPr>
-        <b val="true"/>
-        <sz val="12"/>
-        <color rgb="FF00000A"/>
-        <rFont val="TimesNewRomanPSMT"/>
-        <family val="1"/>
-      </rPr>
-      <t xml:space="preserve">Inici Torneig de Bàsquet 12 hores 3x3 </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color rgb="FF00000A"/>
-        <rFont val="TimesNewRomanPSMT"/>
-        <family val="1"/>
-      </rPr>
-      <t xml:space="preserve">a càrrec del CB Sa Cabaneta al Poliesportiu Municipal Costa i Llobera. Per a més informació i inscripcions </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color rgb="FF0B4CB4"/>
-        <rFont val="TimesNewRomanPSMT"/>
-        <family val="1"/>
-      </rPr>
-      <t xml:space="preserve">www.cbsacabaneta.com</t>
-    </r>
-  </si>
-  <si>
-    <t xml:space="preserve">10,30 h</t>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <b val="true"/>
-        <sz val="12"/>
-        <color rgb="FF00000A"/>
-        <rFont val="TimesNewRomanPSMT"/>
-        <family val="1"/>
+    <t xml:space="preserve">Inici Torneig de Bàsquet 12 hores 3x3 a càrrec del CB Sa Cabaneta al Poliesportiu Municipal Costa i Llobera. Per a més informació i inscripcions www.cbsacabaneta.com</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.30 h</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b val="true"/>
+        <sz val="12"/>
+        <color rgb="FF00000A"/>
+        <rFont val="TimesNewRomanPSMT"/>
+        <family val="1"/>
+        <charset val="1"/>
       </rPr>
       <t xml:space="preserve">Volta cicloturística </t>
     </r>
@@ -265,8 +253,106 @@
         <color rgb="FF00000A"/>
         <rFont val="TimesNewRomanPSMT"/>
         <family val="1"/>
+        <charset val="1"/>
       </rPr>
       <t xml:space="preserve">per Pòrtol per a totes les edats. Sortida i arribada a la plaça de Ca’n Flor.</t>
+    </r>
+  </si>
+  <si>
+    <t xml:space="preserve">12.30 h</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b val="true"/>
+        <sz val="12"/>
+        <color rgb="FF00000A"/>
+        <rFont val="TimesNewRomanPSMT"/>
+        <family val="1"/>
+      </rPr>
+      <t xml:space="preserve">Vermut </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF00000A"/>
+        <rFont val="TimesNewRomanPSMT"/>
+        <family val="1"/>
+      </rPr>
+      <t xml:space="preserve">a la Plaça de Can Flor (palo amb sifó de franc) + concurs de dolç per adults.</t>
+    </r>
+  </si>
+  <si>
+    <t xml:space="preserve">14.00 h</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b val="true"/>
+        <sz val="12"/>
+        <color rgb="FF00000A"/>
+        <rFont val="TimesNewRomanPSMT"/>
+        <family val="1"/>
+      </rPr>
+      <t xml:space="preserve">Gran Paella </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF00000A"/>
+        <rFont val="TimesNewRomanPSMT"/>
+        <family val="1"/>
+      </rPr>
+      <t xml:space="preserve">a la Plaça de Can Flor. (Paella + Boure + Postre)
+Tickets reserva de taula: de dia 9 a dia 12, al Carrer Mare de Déu del Carme, 1 amb horari de 10 a 12 h i de 18 a 20,30 h a 5 € per persona.</t>
+    </r>
+  </si>
+  <si>
+    <t xml:space="preserve">17.30 h</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b val="true"/>
+        <sz val="12"/>
+        <color rgb="FF00000A"/>
+        <rFont val="TimesNewRomanPSMT"/>
+        <family val="1"/>
+      </rPr>
+      <t xml:space="preserve">Exposició de motos i cotxes antics i clàssics </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF00000A"/>
+        <rFont val="TimesNewRomanPSMT"/>
+        <family val="1"/>
+      </rPr>
+      <t xml:space="preserve">(si teniu motos o cotxes antics o clàssics i els he voleu exposar, telefonau al 625 103 980).</t>
+    </r>
+  </si>
+  <si>
+    <t xml:space="preserve">18.30 h</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b val="true"/>
+        <sz val="12"/>
+        <color rgb="FF00000A"/>
+        <rFont val="TimesNewRomanPSMT"/>
+        <family val="1"/>
+      </rPr>
+      <t xml:space="preserve">Volta a Pòrtol </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF00000A"/>
+        <rFont val="TimesNewRomanPSMT"/>
+        <family val="1"/>
+      </rPr>
+      <t xml:space="preserve">amb motos i cotxes antics i clàssics.</t>
     </r>
   </si>
 </sst>
@@ -277,11 +363,12 @@
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="General"/>
   </numFmts>
-  <fonts count="8">
+  <fonts count="10">
     <font>
       <sz val="10"/>
       <name val="Arial"/>
       <family val="2"/>
+      <charset val="1"/>
     </font>
     <font>
       <sz val="10"/>
@@ -303,11 +390,13 @@
       <color rgb="FF00000A"/>
       <name val="TimesNewRomanPSMT"/>
       <family val="1"/>
+      <charset val="1"/>
     </font>
     <font>
       <sz val="12"/>
       <name val="TimesNewRomanPSMT"/>
       <family val="1"/>
+      <charset val="1"/>
     </font>
     <font>
       <b val="true"/>
@@ -315,10 +404,25 @@
       <color rgb="FF00000A"/>
       <name val="TimesNewRomanPSMT"/>
       <family val="1"/>
+      <charset val="1"/>
     </font>
     <font>
       <sz val="12"/>
       <color rgb="FF0B4CB4"/>
+      <name val="TimesNewRomanPSMT"/>
+      <family val="1"/>
+      <charset val="1"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color rgb="FF00000A"/>
+      <name val="TimesNewRomanPSMT"/>
+      <family val="1"/>
+    </font>
+    <font>
+      <b val="true"/>
+      <sz val="12"/>
+      <color rgb="FF00000A"/>
       <name val="TimesNewRomanPSMT"/>
       <family val="1"/>
     </font>
@@ -365,7 +469,7 @@
     <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="8">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -384,6 +488,18 @@
     </xf>
     <xf numFmtId="164" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
   </cellXfs>
@@ -463,10 +579,10 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:D11"/>
+  <dimension ref="A1:D15"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="C13" activeCellId="0" sqref="C13"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A4" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="C16" activeCellId="0" sqref="C16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -576,9 +692,41 @@
         <v>24</v>
       </c>
     </row>
+    <row r="12" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B12" s="5" t="s">
+        <v>25</v>
+      </c>
+      <c r="C12" s="6" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="13" customFormat="false" ht="28.1" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B13" s="5" t="s">
+        <v>27</v>
+      </c>
+      <c r="C13" s="7" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="14" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B14" s="5" t="s">
+        <v>29</v>
+      </c>
+      <c r="C14" s="6" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="15" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B15" s="5" t="s">
+        <v>31</v>
+      </c>
+      <c r="C15" s="6" t="s">
+        <v>32</v>
+      </c>
+    </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="C10" r:id="rId1" display="www.cbsacabaneta.com"/>
+    <hyperlink ref="C10" r:id="rId1" display="Inici Torneig de Bàsquet 12 hores 3x3 a càrrec del CB Sa Cabaneta al Poliesportiu Municipal Costa i Llobera. Per a més informació i inscripcions www.cbsacabaneta.com"/>
   </hyperlinks>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
   <pageMargins left="0.7875" right="0.7875" top="1.05277777777778" bottom="1.05277777777778" header="0.7875" footer="0.7875"/>
